--- a/The square root of all evil; The role of market power in fiscal consolidations/sG.xlsx
+++ b/The square root of all evil; The role of market power in fiscal consolidations/sG.xlsx
@@ -12,20 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>48</t>
   </si>
   <si>
@@ -63,6 +54,18 @@
   </si>
   <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.13346181467518983</v>
+        <v>-0.06533551889502111</v>
       </c>
     </row>
     <row r="3">
@@ -132,7 +135,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.08837029622593634</v>
+        <v>0.04144164795171783</v>
       </c>
     </row>
     <row r="4">
@@ -140,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.06345493202573632</v>
+        <v>-0.04067996465146957</v>
       </c>
     </row>
     <row r="5">
@@ -148,7 +151,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.06533551889502111</v>
+        <v>-0.010700990644140311</v>
       </c>
     </row>
     <row r="6">
@@ -156,7 +159,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04144164795171783</v>
+        <v>-0.10566866526741182</v>
       </c>
     </row>
     <row r="7">
@@ -164,7 +167,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.04067996465146957</v>
+        <v>-0.03395115281113107</v>
       </c>
     </row>
     <row r="8">
@@ -172,7 +175,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.010700990644140311</v>
+        <v>0.04582263104300784</v>
       </c>
     </row>
     <row r="9">
@@ -180,7 +183,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.10566866526741182</v>
+        <v>0.01718140906491384</v>
       </c>
     </row>
     <row r="10">
@@ -188,7 +191,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.03395115281113107</v>
+        <v>-0.03166488604385733</v>
       </c>
     </row>
     <row r="11">
@@ -196,7 +199,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04582263104300784</v>
+        <v>-0.01275508233550922</v>
       </c>
     </row>
     <row r="12">
@@ -204,7 +207,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01718140906491384</v>
+        <v>-0.016200657774120584</v>
       </c>
     </row>
     <row r="13">
@@ -212,7 +215,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.03166488604385733</v>
+        <v>0.05308148958459007</v>
       </c>
     </row>
     <row r="14">
@@ -220,7 +223,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.01275508233550922</v>
+        <v>0.20215497635938257</v>
       </c>
     </row>
     <row r="15">
@@ -228,7 +231,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.016200657774120584</v>
+        <v>-0.08704427593797533</v>
       </c>
     </row>
     <row r="16">
@@ -236,7 +239,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05308148958459007</v>
+        <v>-0.11233554449602833</v>
       </c>
     </row>
     <row r="17">
@@ -244,7 +247,15 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20215497635938257</v>
+        <v>-0.05362253680565905</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.011383182193321672</v>
       </c>
     </row>
   </sheetData>
